--- a/tabular/extension/icv_nuccore_isolates.xlsx
+++ b/tabular/extension/icv_nuccore_isolates.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/respiratory/Flu-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{357ECB16-445D-C341-9425-BA9E8FD26B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5A1747-0A04-3843-93ED-9C45A935A08B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27560" windowHeight="16940"/>
+    <workbookView xWindow="980" yWindow="7620" windowWidth="27560" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icv_nuccore_isolates" sheetId="1" r:id="rId1"/>
@@ -6280,7 +6280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -6417,7 +6417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6597,6 +6597,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -6758,8 +6764,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7114,11 +7121,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="I488" sqref="I488"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7127,64 +7134,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
